--- a/biology/Histoire de la zoologie et de la botanique/Otto_Kuntze/Otto_Kuntze.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Otto_Kuntze/Otto_Kuntze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Ernst Otto Kuntze est un  botaniste saxon, né le 23 juin 1843 à Leipzig et mort le 27 janvier 1907 à Sanremo en Italie.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il poursuit ses études à l’université de Berlin et à celle de Leipzig. Il fait le tour du monde, de 1874 à 1876. Il fonde l’herbarium de Berlin (1884-1890). De 1891 à 1892, il voyage en Europe, en Afrique du Nord, en Amérique du Sud et en Transcaucasie. Il prend sa retraite en 1895.
-Il est notamment l’auteur de Revisio Generum Plantarum[1] (trois volumes, 1891-1898), Lexicon generum phanerogamarum (1903). Il étudie la flore et la faune de la mer des Sargasses, de Singapour et de l’Inde.
+Il est notamment l’auteur de Revisio Generum Plantarum (trois volumes, 1891-1898), Lexicon generum phanerogamarum (1903). Il étudie la flore et la faune de la mer des Sargasses, de Singapour et de l’Inde.
 </t>
         </is>
       </c>
@@ -543,35 +557,37 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(Acanthaceae) Arrhostoxylum kuntzei (Lindau) Bremek.[2]
-(Acanthaceae) Hypoestes kuntzei C.B.Clarke ex Ridl.[3]
-(Aizoaceae) Brownanthus kuntzei (Schinz) Ihlenf. (de) &amp; Bittrich (sv)[4]
-(Araliaceae) Oreopanax kuntzei Harms ex Kuntze[5]
-(Asclepiadaceae) Asclepias kuntzei Schltr.[6]
-(Asteraceae) Berkheyopsis kuntzei O.Hoffm. (en) ex Kuntze[7]
-(Asteraceae) Stevia kuntzei Hieron.[8]
-(Bignoniaceae) Zeyheria (en) kuntzei K.Schum. ex Kuntze[9]
-(Cucurbitaceae) Sicyos kuntzei Cogn. ex Kuntze[10]
-(Cyperaceae) Cyperus kuntzei Boeckeler (de)[11]
-(Cyperaceae) Dichromena kuntzei (C.B.Clarke ex O.Ktze) J.F.Macbr.[12]
-(Cyperaceae) Eleocharis kuntzei Boeckeler (de)[13]
-(Cyperaceae) Rhynchospora kuntzei C.B.Clarke in Kuntze[14]
-(Dioscoreaceae) Dioscorea kuntzei Uline (es) ex Kuntze[15]
-(Fabaceae) Astragalus kuntzei E. Sheld. (es)[16]
-(Gentianaceae) Gentianella kuntzei (Gilg) T.N.Ho &amp; S.W.Liu[17]
-(Juncaceae) Juncus kuntzei Buchenau ex Vierh.[18]
-(Lamiaceae) Plectranthus kuntzei Gürke[19]
-(Leguminosae) Cassia kuntzei Hosseus[20]
-(Loasaceae) Caiophora (de) kuntzei Urb. &amp; Gilg[21]
-(Lythraceae) Nesaea (es) kuntzei Koehne[22]
-(Malvaceae) Cristaria (es) kuntzei Speg.[23]
-(Malvaceae) Hibiscus kuntzei Ulbr.[24]
-(Melastomataceae) Acinodendron (pt) kuntzei (Cogn.) Kuntze[25]
-(Piperaceae) Peperomia kuntzei C.DC. ex Kuntze[26]
-(Polygonaceae) Polygonum kuntzei P.Fourn.[27]
-(Rubiaceae) Diodia kuntzei K.Schum.[28]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Acanthaceae) Arrhostoxylum kuntzei (Lindau) Bremek.
+(Acanthaceae) Hypoestes kuntzei C.B.Clarke ex Ridl.
+(Aizoaceae) Brownanthus kuntzei (Schinz) Ihlenf. (de) &amp; Bittrich (sv)
+(Araliaceae) Oreopanax kuntzei Harms ex Kuntze
+(Asclepiadaceae) Asclepias kuntzei Schltr.
+(Asteraceae) Berkheyopsis kuntzei O.Hoffm. (en) ex Kuntze
+(Asteraceae) Stevia kuntzei Hieron.
+(Bignoniaceae) Zeyheria (en) kuntzei K.Schum. ex Kuntze
+(Cucurbitaceae) Sicyos kuntzei Cogn. ex Kuntze
+(Cyperaceae) Cyperus kuntzei Boeckeler (de)
+(Cyperaceae) Dichromena kuntzei (C.B.Clarke ex O.Ktze) J.F.Macbr.
+(Cyperaceae) Eleocharis kuntzei Boeckeler (de)
+(Cyperaceae) Rhynchospora kuntzei C.B.Clarke in Kuntze
+(Dioscoreaceae) Dioscorea kuntzei Uline (es) ex Kuntze
+(Fabaceae) Astragalus kuntzei E. Sheld. (es)
+(Gentianaceae) Gentianella kuntzei (Gilg) T.N.Ho &amp; S.W.Liu
+(Juncaceae) Juncus kuntzei Buchenau ex Vierh.
+(Lamiaceae) Plectranthus kuntzei Gürke
+(Leguminosae) Cassia kuntzei Hosseus
+(Loasaceae) Caiophora (de) kuntzei Urb. &amp; Gilg
+(Lythraceae) Nesaea (es) kuntzei Koehne
+(Malvaceae) Cristaria (es) kuntzei Speg.
+(Malvaceae) Hibiscus kuntzei Ulbr.
+(Melastomataceae) Acinodendron (pt) kuntzei (Cogn.) Kuntze
+(Piperaceae) Peperomia kuntzei C.DC. ex Kuntze
+(Polygonaceae) Polygonum kuntzei P.Fourn.
+(Rubiaceae) Diodia kuntzei K.Schum.</t>
         </is>
       </c>
     </row>
